--- a/IntegrationsPlan.xlsx
+++ b/IntegrationsPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Ingenioer\4. semester\SWT\SWTAssignment3_Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ACD6A3-BC61-4BB5-BC16-51BA21674CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDF3BF-81B1-4026-A124-27088E30BB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6451BF37-0BC7-4C7D-9698-EA7E0ECD1C16}"/>
   </bookViews>
@@ -569,12 +569,14 @@
   <dimension ref="C2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="14" width="18.7109375" customWidth="1"/>
+    <col min="4" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
@@ -653,7 +655,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="3:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
